--- a/BackTest/2020-01-26 BackTest BTC.xlsx
+++ b/BackTest/2020-01-26 BackTest BTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>11.55963425000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>9.923419850000004</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>10.15251985</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>9.962719850000004</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>20.63801985000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>20.83301985</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>20.83301985</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>22.59582943</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>20.25742943</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>20.25742943</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>20.90562943</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>20.90562943</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>17.67322943</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>15.21092943</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>18.15592943</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>18.15852943</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>18.15512943</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>18.16592943</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>18.16592943</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>18.03086662</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>17.27566662</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>17.27566662</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>17.27566662</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>17.26936662</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>8.809442199999998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>10.8620422</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>12.5501422</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>12.4723422</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>14.8266422</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>14.6797422</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>14.6438422</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>14.8413422</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>14.8299422</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>15.3856422</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>15.2929422</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>15.2929422</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>15.2929422</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>15.2929422</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>15.4689422</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>15.4391422</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>13.3322422</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>14.4610422</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>14.3597422</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>15.7422422</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>15.7422422</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>17.96814625</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>19.53544625</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>18.04994625</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>18.10388001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>17.08988001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>17.19698001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>15.92433386</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>18.28793386</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>15.27413386</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>15.22823386</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>15.22823386</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>18.03843386</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>18.97973386</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>18.97693386</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>18.97693386</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>19.07593386</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>18.33833386</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>18.91093386</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>20.47363386</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>20.47363386</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>20.41373386</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>20.41424157000001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>20.41424157000001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>20.15074157</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>21.32074157</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>18.91938158</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>18.96548158</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>18.96548158</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>19.07098158</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>19.06148158</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>17.97128158</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>17.97848477</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>18.25378477</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>18.25378477</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>20.83547839000001</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>20.83547839000001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>20.82187839000001</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>20.82187839000001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>21.13697839000001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>18.13657557000001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>16.06737557</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>16.06757557</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>16.81507557</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>16.68497557</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>15.58037557</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>15.58037557</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>15.99067557</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>17.5148699</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>17.5107699</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>17.5251699</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>17.5080699</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>17.58680436</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>20.28260436</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>20.28100436</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>20.25380436</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>21.73530691</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>20.05790691</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>20.10790691</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>18.11510691</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>18.87450691</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>19.35630691</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>19.34830691</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>19.42920691</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>19.18270713</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>19.18200713</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>18.97870713</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>19.39210713</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>19.41740713</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>15.82630713</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>14.69780713</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>14.69780713</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>14.50040713</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>16.16210713</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>15.13590713</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>15.13650713</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>13.14640713</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>13.08380713</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>13.08380713</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>12.90810713</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>12.91220713</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>12.91180713</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>11.32280713</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>11.32440713</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>11.32440713</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>11.31200713</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>13.71260713</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>13.78210713</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>13.4522109</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>13.4948109</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>13.4948109</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>13.4831109</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>13.5178109</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>13.5178109</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>13.5178109</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>13.5301109</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>13.5053109</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>13.5053109</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>13.5053109</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>13.6138109</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>11.6753109</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>11.6753109</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>11.6753109</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>11.7978109</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>28.2908109</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>26.8476109</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>26.4019109</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>26.4595109</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>26.4562109</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>26.4297109</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>26.4599109</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>26.1937109</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>26.1988109</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>26.3430109</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>26.3430109</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>27.70220843</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>27.69830843</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>27.50820843</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>27.96620842999999</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>27.83760843</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>27.79030843</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>27.79030843</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>28.25900842999999</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>28.38410842999999</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>29.33700842999999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>28.78640842999999</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>28.82590842999999</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>28.62970842999999</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>28.62970842999999</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>28.71610842999999</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>29.44340278999999</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>25.40940278999999</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>25.71810649999999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>24.22710649999999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>24.5743065</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>24.62830649999999</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>24.1612065</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>23.01870649999999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>24.46450649999999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>24.46360649999999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>24.50150649999999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>24.50150649999999</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>23.05510649999999</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>23.13830649999999</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>23.13830649999999</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>22.87690649999999</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>22.95630649999999</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>23.87750649999999</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>23.87750649999999</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>21.49550649999999</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>17.71920649999999</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>18.78680649999999</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>17.76510649999999</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>17.89326374999999</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>17.89326374999999</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>17.89326374999999</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>17.91726374999999</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>18.40125893999999</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>18.49775893999999</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>18.39945894</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>18.62093698</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>18.58603698</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>18.58603698</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>18.63383697999999</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>18.63383697999999</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>18.63383697999999</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>18.61933697999999</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>19.49983697999999</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>19.51813697999999</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>19.34703698</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>19.61873697999999</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>18.68193697999999</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>18.02143697999999</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>18.02143697999999</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>18.02143697999999</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>9.086236979999995</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>9.086236979999995</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>9.071236979999995</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>8.596736979999994</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>9.561736979999994</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>9.570536979999995</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>9.804834219999995</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>8.496534219999994</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>8.308734219999993</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>9.286734239999992</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>9.443183089999993</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>9.506283089999993</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>9.395383089999992</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>9.395383089999992</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>7.136779919999992</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>7.136779919999992</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>6.373879919999992</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>4.133285909999993</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>3.406985909999993</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>3.406985909999993</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>3.737585909999993</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>3.737585909999993</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>3.737585909999993</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>3.737585909999993</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>3.737585909999993</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>4.484185909999994</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>4.484185909999994</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>5.861785909999993</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>2.127152359999993</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -18799,17 +18799,11 @@
         <v>-32.89458018000001</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>9669000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18838,17 +18832,11 @@
         <v>-26.36484713000001</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>9679000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18877,17 +18865,11 @@
         <v>-29.59308008000001</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>9681000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18916,17 +18898,11 @@
         <v>-35.00757155000001</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>9671000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18955,17 +18931,11 @@
         <v>-33.83527155000001</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>9668000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18994,7 +18964,7 @@
         <v>-33.83527155000001</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>9671000</v>
@@ -19002,7 +18972,7 @@
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L563" t="n">
@@ -19033,7 +19003,7 @@
         <v>-31.70307155000001</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>9671000</v>
@@ -19072,9 +19042,11 @@
         <v>-34.82215019000001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>9673000</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19109,7 +19081,7 @@
         <v>-33.65871988000001</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>9671000</v>
@@ -19148,9 +19120,11 @@
         <v>-33.17931988000001</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>9676000</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19185,9 +19159,11 @@
         <v>-33.17931988000001</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>9681000</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19222,7 +19198,7 @@
         <v>-33.93331988000001</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>9681000</v>
@@ -19261,7 +19237,7 @@
         <v>-33.33091988</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I570" t="n">
         <v>9677000</v>
@@ -19300,7 +19276,7 @@
         <v>-33.33091988</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>9690000</v>
@@ -19339,7 +19315,7 @@
         <v>-33.33091988</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I572" t="n">
         <v>9690000</v>
@@ -19378,7 +19354,7 @@
         <v>-34.85391901000001</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I573" t="n">
         <v>9690000</v>
@@ -19417,7 +19393,7 @@
         <v>-36.51085353000001</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I574" t="n">
         <v>9687000</v>
@@ -19456,7 +19432,7 @@
         <v>-36.34395353000001</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" t="n">
         <v>9677000</v>
@@ -19495,7 +19471,7 @@
         <v>-36.34395353000001</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I576" t="n">
         <v>9687000</v>
@@ -19534,7 +19510,7 @@
         <v>-35.65305353000001</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>9687000</v>
@@ -19573,7 +19549,7 @@
         <v>-35.56175353000001</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>9690000</v>
@@ -19649,7 +19625,7 @@
         <v>-35.64325353000001</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>9693000</v>
@@ -20539,11 +20515,9 @@
         <v>-27.66396707000001</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="n">
-        <v>9698000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -20578,11 +20552,9 @@
         <v>-28.22476707000001</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="n">
-        <v>9700000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21061,11 +21033,9 @@
         <v>-26.01699262000001</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>9704000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -23542,11 +23512,9 @@
         <v>-48.99109333000001</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -23581,11 +23549,9 @@
         <v>-48.64519333000001</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -23620,11 +23586,9 @@
         <v>-48.85179333000001</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>9684000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -23659,11 +23623,9 @@
         <v>-46.79939333000001</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -23698,11 +23660,9 @@
         <v>-46.52379333000001</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>9693000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -23737,11 +23697,9 @@
         <v>-45.20680775000001</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>9707000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24590,11 +24548,9 @@
         <v>-44.67774459000001</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
-      </c>
-      <c r="I713" t="n">
-        <v>9691000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24666,11 +24622,9 @@
         <v>-44.81934459000001</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>9709000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -25001,11 +24955,9 @@
         <v>-46.14994459</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>9698000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -25040,11 +24992,9 @@
         <v>-46.14994459</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
-      </c>
-      <c r="I725" t="n">
-        <v>9696000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -25116,11 +25066,9 @@
         <v>-46.70454459</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>9696000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -25155,11 +25103,9 @@
         <v>-46.69844459</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
-      </c>
-      <c r="I728" t="n">
-        <v>9688000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -25194,11 +25140,9 @@
         <v>-46.69844459</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
-      </c>
-      <c r="I729" t="n">
-        <v>9695000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -25233,11 +25177,9 @@
         <v>-46.69844459</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>9695000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -25272,11 +25214,9 @@
         <v>-47.69954459</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>9695000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25311,11 +25251,9 @@
         <v>-47.14774459</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>9694000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25350,11 +25288,9 @@
         <v>-47.14774459</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>9696000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25389,11 +25325,9 @@
         <v>-47.14774459</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>9696000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25428,11 +25362,9 @@
         <v>-47.14774459</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>9696000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -25467,11 +25399,9 @@
         <v>-47.57534459</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>9696000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -25876,11 +25806,9 @@
         <v>-54.42413715000001</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25915,11 +25843,9 @@
         <v>-54.42413715000001</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25954,11 +25880,9 @@
         <v>-57.23333715</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25993,11 +25917,9 @@
         <v>-57.23333715</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -26032,11 +25954,9 @@
         <v>-57.05043715000001</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -26071,11 +25991,9 @@
         <v>-57.05043715000001</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -26110,11 +26028,9 @@
         <v>-57.05043715000001</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -26149,11 +26065,9 @@
         <v>-57.05043715000001</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -26188,11 +26102,9 @@
         <v>-57.05043715000001</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -26227,11 +26139,9 @@
         <v>-57.40793715000001</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -26266,11 +26176,9 @@
         <v>-57.72263715000001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="n">
-        <v>9687000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -26305,11 +26213,9 @@
         <v>-57.71913715000001</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>9683000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -26344,11 +26250,9 @@
         <v>-57.71913715000001</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
-      </c>
-      <c r="I759" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -26383,11 +26287,9 @@
         <v>-58.28437943000001</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
-      </c>
-      <c r="I760" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -26422,11 +26324,9 @@
         <v>-58.27416125000001</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
-      </c>
-      <c r="I761" t="n">
-        <v>9687000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26461,11 +26361,9 @@
         <v>-61.30366125</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>9690000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26500,11 +26398,9 @@
         <v>-61.32436125</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="n">
-        <v>9687000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26539,11 +26435,9 @@
         <v>-61.32436125</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="n">
-        <v>9681000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26578,11 +26472,9 @@
         <v>-61.32436125</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>9681000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26617,11 +26509,9 @@
         <v>-60.93836125</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="n">
-        <v>9681000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26656,11 +26546,9 @@
         <v>-60.93836125</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="n">
-        <v>9682000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26695,11 +26583,9 @@
         <v>-60.60016125</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
-      </c>
-      <c r="I768" t="n">
-        <v>9682000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26734,11 +26620,9 @@
         <v>-60.64016125</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
-      </c>
-      <c r="I769" t="n">
-        <v>9684000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26773,11 +26657,9 @@
         <v>-60.26606125</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
-      </c>
-      <c r="I770" t="n">
-        <v>9682000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26812,11 +26694,9 @@
         <v>-58.36137901</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
-      </c>
-      <c r="I771" t="n">
-        <v>9689000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -26851,11 +26731,9 @@
         <v>-58.80447901</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
-      </c>
-      <c r="I772" t="n">
-        <v>9690000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26890,11 +26768,9 @@
         <v>-53.39697901</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
-      </c>
-      <c r="I773" t="n">
-        <v>9685000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26929,11 +26805,9 @@
         <v>-53.68137901</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
-      </c>
-      <c r="I774" t="n">
-        <v>9693000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26968,11 +26842,9 @@
         <v>-53.68137901</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
-      </c>
-      <c r="I775" t="n">
-        <v>9687000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -27007,11 +26879,9 @@
         <v>-53.56921395</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
-      </c>
-      <c r="I776" t="n">
-        <v>9687000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -27046,11 +26916,9 @@
         <v>-47.72077115</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
-      </c>
-      <c r="I777" t="n">
-        <v>9693000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -27085,11 +26953,9 @@
         <v>-47.30642756</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="n">
-        <v>9698000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -27124,11 +26990,9 @@
         <v>-47.63112756</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
-      </c>
-      <c r="I779" t="n">
-        <v>9708000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -27163,11 +27027,9 @@
         <v>-47.58342756</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>9682000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -27239,11 +27101,9 @@
         <v>-47.52002756</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="n">
-        <v>9693000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27278,11 +27138,9 @@
         <v>-47.52002756</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="n">
-        <v>9694000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -27317,11 +27175,9 @@
         <v>-47.42402756</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="n">
-        <v>9694000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -27356,11 +27212,9 @@
         <v>-46.77462756</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>9698000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -27395,11 +27249,9 @@
         <v>-46.72462756</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="n">
-        <v>9699000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -27434,11 +27286,9 @@
         <v>-47.27444368</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>9701000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -27473,11 +27323,9 @@
         <v>-46.95054368</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="n">
-        <v>9699000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -27512,11 +27360,9 @@
         <v>-47.06514368000001</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
-      </c>
-      <c r="I789" t="n">
-        <v>9706000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -27551,11 +27397,9 @@
         <v>-46.27544368</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
-      </c>
-      <c r="I790" t="n">
-        <v>9698000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -27590,11 +27434,9 @@
         <v>-46.34204368</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="n">
-        <v>9710000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27629,11 +27471,9 @@
         <v>-46.34204368</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="n">
-        <v>9709000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -27668,11 +27508,9 @@
         <v>-46.33544368</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="n">
-        <v>9709000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -28595,11 +28433,9 @@
         <v>-49.92113618</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
-      </c>
-      <c r="I818" t="n">
-        <v>9722000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -42583,11 +42419,9 @@
         <v>-87.52305688</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1196" t="n">
-        <v>9686000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -42622,11 +42456,9 @@
         <v>-85.43205688</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1197" t="n">
-        <v>9685000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -42661,11 +42493,9 @@
         <v>-85.43205688</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>9686000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
@@ -42700,11 +42530,9 @@
         <v>-85.26215688000001</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>9686000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -42739,11 +42567,9 @@
         <v>-86.95245688</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>9692000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -42852,11 +42678,9 @@
         <v>-87.29455688</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>9695000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -42891,11 +42715,9 @@
         <v>-86.50355691</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>9684000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -42930,11 +42752,9 @@
         <v>-86.50355691</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1205" t="n">
-        <v>9691000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -42969,11 +42789,9 @@
         <v>-86.50355691</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1206" t="n">
-        <v>9691000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -43045,11 +42863,9 @@
         <v>-86.08737302999999</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>9686000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
@@ -43084,11 +42900,9 @@
         <v>-85.40487302999999</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>9693000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
@@ -43123,11 +42937,9 @@
         <v>-81.49597302999999</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1210" t="n">
-        <v>9699000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
@@ -43421,11 +43233,9 @@
         <v>-83.27847645</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>9707000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -43460,11 +43270,9 @@
         <v>-83.28027645</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>9706000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -43499,11 +43307,9 @@
         <v>-82.68307645</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1220" t="n">
-        <v>9700000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
@@ -43538,11 +43344,9 @@
         <v>-82.69397645000001</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1221" t="n">
-        <v>9706000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
@@ -43577,11 +43381,9 @@
         <v>-83.03397645000001</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1222" t="n">
-        <v>9705000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
@@ -43616,11 +43418,9 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1223" t="n">
-        <v>9704000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
@@ -43655,11 +43455,9 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>9703000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
@@ -43731,11 +43529,9 @@
         <v>-80.43127645000001</v>
       </c>
       <c r="H1226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1226" t="n">
-        <v>9703000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
@@ -43807,11 +43603,9 @@
         <v>-66.79717645000001</v>
       </c>
       <c r="H1228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1228" t="n">
-        <v>9712000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
@@ -44438,11 +44232,9 @@
         <v>-71.75672845000001</v>
       </c>
       <c r="H1245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>9707000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
@@ -45365,11 +45157,9 @@
         <v>-65.78153072000002</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1270" t="n">
-        <v>9704000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
@@ -45715,6 +45505,6 @@
       <c r="M1279" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>